--- a/ValueSet-geccoplus-allergies-icd.xlsx
+++ b/ValueSet-geccoplus-allergies-icd.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,13 +42,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Allergies</t>
+    <t>Allergies (ICD-10-GM)</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Value set for allergies in the context of GECCO+</t>
+    <t>Value set for allergies in the context of GECCO+ (ICD-10-GM)</t>
   </si>
   <si>
     <t>Purpose</t>
